--- a/Data/Transitions/19241929Translation.xlsx
+++ b/Data/Transitions/19241929Translation.xlsx
@@ -31,19 +31,19 @@
     <t>{2.0: 1.0}</t>
   </si>
   <si>
-    <t>{3.0: 0.7129629629629629}</t>
+    <t>{3.0: 0.7069508804448563}</t>
   </si>
   <si>
     <t>{4.0: 1.0}</t>
   </si>
   <si>
-    <t>{5.0: 0.9881325570980743}</t>
+    <t>{5.0: 0.988177559669864}</t>
   </si>
   <si>
     <t>{6.0: 1.0}</t>
   </si>
   <si>
-    <t>{7.0: 0.9854496071393928}</t>
+    <t>{7.0: 0.9853027630805409}</t>
   </si>
   <si>
     <t>{8.0: 1.0}</t>
@@ -52,7 +52,7 @@
     <t>{9.0: 1.0}</t>
   </si>
   <si>
-    <t>{10.0: 0.9896835717381881}</t>
+    <t>{10.0: 0.9895951735594999}</t>
   </si>
   <si>
     <t>{11.0: 1.0}</t>
@@ -106,13 +106,13 @@
     <t>{45.0: 1.0}</t>
   </si>
   <si>
-    <t>{46.0: 1.0, 246.0: 0.020243429632049555, 681.0: 0.003530544559751792, 741.0: 0.006816245384833854, 789.0: 0.0030806647750304013, 90.0: 0.005317945236478841}</t>
+    <t>{46.0: 1.0, 246.0: 0.020222334109528693, 681.0: 0.0035354617527319477, 741.0: 0.006816245384833854, 789.0: 0.0030869212022745737, 90.0: 0.005340909090909091}</t>
   </si>
   <si>
     <t>{47.0: 1.0}</t>
   </si>
   <si>
-    <t>{48.0: 1.0, 443.0: 0.03765690376569038, 291.0: 0.0025782349920288987}</t>
+    <t>{48.0: 1.0, 443.0: 0.03748355984217448, 291.0: 0.002574966691196572}</t>
   </si>
   <si>
     <t>{49.0: 1.0}</t>
@@ -145,7 +145,7 @@
     <t>{70.0: 1.0}</t>
   </si>
   <si>
-    <t>{71.0: 0.9914243102162565}</t>
+    <t>{71.0: 0.9914200447649838}</t>
   </si>
   <si>
     <t>{72.0: 1.0}</t>
@@ -172,10 +172,10 @@
     <t>{79.0: 1.0}</t>
   </si>
   <si>
-    <t>{80.0: 1.0, 757.0: 0.13017306245297217}</t>
-  </si>
-  <si>
-    <t>{81.0: 0.7850698306760598}</t>
+    <t>{80.0: 1.0, 757.0: 0.16313059877416314}</t>
+  </si>
+  <si>
+    <t>{81.0: 0.7830859423724585}</t>
   </si>
   <si>
     <t>{82.0: 1.0}</t>
@@ -202,10 +202,10 @@
     <t>{89.0: 1.0}</t>
   </si>
   <si>
-    <t>{90.0: 0.9946820547635211}</t>
-  </si>
-  <si>
-    <t>{91.0: 1.0, 104.0: 0.03796203796203796}</t>
+    <t>{90.0: 0.9946590909090909}</t>
+  </si>
+  <si>
+    <t>{91.0: 1.0, 104.0: 0.03568075117370892}</t>
   </si>
   <si>
     <t>{92.0: 1.0}</t>
@@ -244,13 +244,13 @@
     <t>{103.0: 1.0}</t>
   </si>
   <si>
-    <t>{104.0: 0.962037962037962}</t>
+    <t>{104.0: 0.964319248826291}</t>
   </si>
   <si>
     <t>{105.0: 1.0}</t>
   </si>
   <si>
-    <t>{107.0: 1.0, 543.0: 0.0069992364469330616}</t>
+    <t>{107.0: 1.0, 543.0: 0.0067138671875}</t>
   </si>
   <si>
     <t>{108.0: 1.0}</t>
@@ -283,7 +283,7 @@
     <t>{146.0: 1.0}</t>
   </si>
   <si>
-    <t>{147.0: 1.0, 733.0: 0.0815552394499763}</t>
+    <t>{147.0: 1.0, 733.0: 0.07612303606992697}</t>
   </si>
   <si>
     <t>{148.0: 1.0}</t>
@@ -328,10 +328,10 @@
     <t>{170.0: 1.0}</t>
   </si>
   <si>
-    <t>{171.0: 0.9953907395767861}</t>
-  </si>
-  <si>
-    <t>{172.0: 0.9428147659854977}</t>
+    <t>{171.0: 0.9954056593922941}</t>
+  </si>
+  <si>
+    <t>{172.0: 0.9421280853902602}</t>
   </si>
   <si>
     <t>{173.0: 1.0}</t>
@@ -355,16 +355,16 @@
     <t>{179.0: 1.0}</t>
   </si>
   <si>
-    <t>{180.0: 1.0, 410.0: 0.03427719821162444}</t>
+    <t>{180.0: 1.0, 410.0: 0.03398499659013412}</t>
   </si>
   <si>
     <t>{181.0: 1.0}</t>
   </si>
   <si>
-    <t>{182.0: 0.6477801374923218}</t>
-  </si>
-  <si>
-    <t>{182.0: 0.16187171408892798}</t>
+    <t>{182.0: 0.6467200725568916}</t>
+  </si>
+  <si>
+    <t>{182.0: 0.16235887418898493}</t>
   </si>
   <si>
     <t>{184.0: 1.0}</t>
@@ -379,7 +379,7 @@
     <t>{203.0: 1.0}</t>
   </si>
   <si>
-    <t>{204.0: 0.9985580389329488}</t>
+    <t>{204.0: 0.9985426989215972}</t>
   </si>
   <si>
     <t>{205.0: 1.0}</t>
@@ -400,10 +400,10 @@
     <t>{210.0: 1.0}</t>
   </si>
   <si>
-    <t>{211.0: 0.970627863109674}</t>
-  </si>
-  <si>
-    <t>{212.0: 1.0, 681.0: 0.00641917192682144}</t>
+    <t>{211.0: 0.9704727075714479}</t>
+  </si>
+  <si>
+    <t>{212.0: 1.0, 681.0: 0.0064281122776944505}</t>
   </si>
   <si>
     <t>{213.0: 1.0}</t>
@@ -412,13 +412,13 @@
     <t>{214.0: 1.0}</t>
   </si>
   <si>
-    <t>{215.0: 0.9854413102820746}</t>
+    <t>{215.0: 0.985523637186157}</t>
   </si>
   <si>
     <t>{217.0: 1.0}</t>
   </si>
   <si>
-    <t>{218.0: 1.0, 409.0: 0.11470472698703679}</t>
+    <t>{218.0: 1.0, 409.0: 0.11496062992125984}</t>
   </si>
   <si>
     <t>{219.0: 1.0}</t>
@@ -439,7 +439,7 @@
     <t>{226.0: 1.0}</t>
   </si>
   <si>
-    <t>{227.0: 0.6596534653465347}</t>
+    <t>{227.0: 0.6191135734072022}</t>
   </si>
   <si>
     <t>{228.0: 1.0}</t>
@@ -481,13 +481,16 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
+    <t>{242.0: 1.0}</t>
+  </si>
+  <si>
     <t>{243.0: 1.0}</t>
   </si>
   <si>
     <t>{244.0: 1.0}</t>
   </si>
   <si>
-    <t>{246.0: 0.9327420280387475}</t>
+    <t>{246.0: 0.9328131282262457}</t>
   </si>
   <si>
     <t>{247.0: 1.0}</t>
@@ -577,7 +580,7 @@
     <t>{277.0: 1.0}</t>
   </si>
   <si>
-    <t>{278.0: 1.0, 767.0: 0.007574832009773977, 757.0: 0.025527821769220777}</t>
+    <t>{278.0: 1.0, 767.0: 0.006935123042505592, 757.0: 0.029445404857946115}</t>
   </si>
   <si>
     <t>{279.0: 1.0}</t>
@@ -589,7 +592,7 @@
     <t>{281.0: 1.0}</t>
   </si>
   <si>
-    <t>{182.0: 0.19034814841875028}</t>
+    <t>{182.0: 0.19092105325412345}</t>
   </si>
   <si>
     <t>{283.0: 1.0}</t>
@@ -616,7 +619,7 @@
     <t>{290.0: 1.0}</t>
   </si>
   <si>
-    <t>{291.0: 0.9315335374338992}</t>
+    <t>{291.0: 0.9313041049986037}</t>
   </si>
   <si>
     <t>{292.0: 1.0}</t>
@@ -652,13 +655,13 @@
     <t>{302.0: 1.0}</t>
   </si>
   <si>
-    <t>{303.0: 0.9137777777777778}</t>
+    <t>{303.0: 0.9136242208370436}</t>
   </si>
   <si>
     <t>{304.0: 1.0}</t>
   </si>
   <si>
-    <t>{305.0: 0.7922672313682628}</t>
+    <t>{305.0: 0.7921536463673023}</t>
   </si>
   <si>
     <t>{306.0: 1.0}</t>
@@ -670,7 +673,7 @@
     <t>{308.0: 1.0}</t>
   </si>
   <si>
-    <t>{309.0: 1.0, 204.0: 0.0014419610670511895}</t>
+    <t>{309.0: 1.0, 204.0: 0.001457301078402798}</t>
   </si>
   <si>
     <t>{310.0: 1.0}</t>
@@ -700,9 +703,6 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
-  </si>
-  <si>
     <t>{321.0: 1.0}</t>
   </si>
   <si>
@@ -739,10 +739,10 @@
     <t>{408.0: 1.0}</t>
   </si>
   <si>
-    <t>{409.0: 0.8852952730129632}</t>
-  </si>
-  <si>
-    <t>{410.0: 0.9657228017883756}</t>
+    <t>{409.0: 0.8850393700787401}</t>
+  </si>
+  <si>
+    <t>{410.0: 0.9660150034098659}</t>
   </si>
   <si>
     <t>{412.0: 1.0}</t>
@@ -763,13 +763,13 @@
     <t>{417.0: 1.0}</t>
   </si>
   <si>
-    <t>{418.0: 0.8830488750969744}</t>
+    <t>{418.0: 0.8827532568539763}</t>
   </si>
   <si>
     <t>{419.0: 1.0}</t>
   </si>
   <si>
-    <t>{420.0: 0.9922685521707526}</t>
+    <t>{420.0: 0.9922624165068448}</t>
   </si>
   <si>
     <t>{421.0: 1.0}</t>
@@ -829,7 +829,7 @@
     <t>{442.0: 1.0}</t>
   </si>
   <si>
-    <t>{443.0: 0.9623430962343096, 291.0: 0.06588822757407185}</t>
+    <t>{443.0: 0.9625164401578256, 291.0: 0.0661209283101997}</t>
   </si>
   <si>
     <t>{475.0: 1.0}</t>
@@ -850,7 +850,7 @@
     <t>{480.0: 1.0}</t>
   </si>
   <si>
-    <t>{481.0: 0.9938574938574939}</t>
+    <t>{481.0: 0.9938423645320197}</t>
   </si>
   <si>
     <t>{482.0: 1.0}</t>
@@ -880,10 +880,10 @@
     <t>{490.0: 1.0}</t>
   </si>
   <si>
-    <t>{491.0: 1.0, 492.0: 0.011442530213422474}</t>
-  </si>
-  <si>
-    <t>{492.0: 0.9885574697865775}</t>
+    <t>{491.0: 1.0, 492.0: 0.011577235772357723}</t>
+  </si>
+  <si>
+    <t>{492.0: 0.9884227642276423}</t>
   </si>
   <si>
     <t>{493.0: 1.0}</t>
@@ -898,7 +898,7 @@
     <t>{496.0: 1.0}</t>
   </si>
   <si>
-    <t>{497.0: 0.7682466786944399}</t>
+    <t>{497.0: 0.7672285981000494}</t>
   </si>
   <si>
     <t>{498.0: 1.0}</t>
@@ -928,7 +928,7 @@
     <t>{506.0: 1.0}</t>
   </si>
   <si>
-    <t>{507.0: 0.7996186117467582}</t>
+    <t>{507.0: 0.7984965866380302}</t>
   </si>
   <si>
     <t>{529.0: 1.0}</t>
@@ -949,7 +949,7 @@
     <t>{534.0: 1.0}</t>
   </si>
   <si>
-    <t>{535.0: 1.0, 71.0: 0.008575689783743476}</t>
+    <t>{535.0: 1.0, 71.0: 0.008579955235016165}</t>
   </si>
   <si>
     <t>{536.0: 1.0}</t>
@@ -970,7 +970,7 @@
     <t>{542.0: 1.0}</t>
   </si>
   <si>
-    <t>{543.0: 0.993000763553067}</t>
+    <t>{543.0: 0.9932861328125}</t>
   </si>
   <si>
     <t>{544.0: 1.0}</t>
@@ -988,7 +988,7 @@
     <t>{561.0: 1.0}</t>
   </si>
   <si>
-    <t>{562.0: 1.0, 211.0: 0.029372136890326056}</t>
+    <t>{562.0: 1.0, 211.0: 0.02952729242855208}</t>
   </si>
   <si>
     <t>{563.0: 1.0}</t>
@@ -1024,10 +1024,10 @@
     <t>{578.0: 1.0}</t>
   </si>
   <si>
-    <t>{580.0: 0.7425309370289322}</t>
-  </si>
-  <si>
-    <t>{581.0: 1.0, 303.0: 0.08622222222222223}</t>
+    <t>{580.0: 0.7416617413799371}</t>
+  </si>
+  <si>
+    <t>{581.0: 1.0, 303.0: 0.08637577916295637}</t>
   </si>
   <si>
     <t>{582.0: 1.0}</t>
@@ -1048,7 +1048,7 @@
     <t>{587.0: 1.0}</t>
   </si>
   <si>
-    <t>{81.0: 0.21493016932394018, 172.0: 0.05718523401450231, 507.0: 0.2003813882532418}</t>
+    <t>{81.0: 0.21691405762754148, 172.0: 0.057871914609739825, 507.0: 0.20150341336196978}</t>
   </si>
   <si>
     <t>{589.0: 1.0}</t>
@@ -1117,16 +1117,16 @@
     <t>{611.0: 1.0}</t>
   </si>
   <si>
-    <t>{612.0: 1.0, 613.0: 0.014371407148212946}</t>
-  </si>
-  <si>
-    <t>{613.0: 0.985628592851787}</t>
-  </si>
-  <si>
-    <t>{305.0: 0.20773276863173715, 615.0: 0.006883365200764819, 698.0: 0.0026191723415400735, 832.0: 0.1194793119479312}</t>
-  </si>
-  <si>
-    <t>{615.0: 0.9931166347992352}</t>
+    <t>{612.0: 1.0, 613.0: 0.013974117504101099}</t>
+  </si>
+  <si>
+    <t>{613.0: 0.986025882495899}</t>
+  </si>
+  <si>
+    <t>{305.0: 0.20784635363269768, 615.0: 0.006551410373066424, 698.0: 0.0026393929396238865, 832.0: 0.12134088762983947}</t>
+  </si>
+  <si>
+    <t>{615.0: 0.9934485896269336}</t>
   </si>
   <si>
     <t>{616.0: 1.0}</t>
@@ -1201,13 +1201,13 @@
     <t>{680.0: 1.0}</t>
   </si>
   <si>
-    <t>{681.0: 0.9900502835134267}</t>
+    <t>{681.0: 0.9900364259695736}</t>
   </si>
   <si>
     <t>{682.0: 1.0}</t>
   </si>
   <si>
-    <t>{683.0: 1.0, 698.0: 0.0021036568325302507}</t>
+    <t>{683.0: 1.0, 698.0: 0.002118993978632306}</t>
   </si>
   <si>
     <t>{684.0: 1.0}</t>
@@ -1216,7 +1216,7 @@
     <t>{685.0: 1.0}</t>
   </si>
   <si>
-    <t>{686.0: 0.8684354485776805}</t>
+    <t>{686.0: 0.8689016080675933}</t>
   </si>
   <si>
     <t>{687.0: 1.0}</t>
@@ -1243,7 +1243,7 @@
     <t>{694.0: 1.0}</t>
   </si>
   <si>
-    <t>{695.0: 1.0, 857.0: 0.03038046564452016}</t>
+    <t>{695.0: 1.0, 857.0: 0.030402045745134252}</t>
   </si>
   <si>
     <t>{696.0: 1.0}</t>
@@ -1252,7 +1252,7 @@
     <t>{697.0: 1.0}</t>
   </si>
   <si>
-    <t>{698.0: 0.9952771708259297}</t>
+    <t>{698.0: 0.9952416130817437}</t>
   </si>
   <si>
     <t>{700.0: 1.0}</t>
@@ -1267,7 +1267,7 @@
     <t>{703.0: 1.0}</t>
   </si>
   <si>
-    <t>{704.0: 1.0, 481.0: 0.006142506142506142}</t>
+    <t>{704.0: 1.0, 481.0: 0.006157635467980296}</t>
   </si>
   <si>
     <t>{705.0: 1.0}</t>
@@ -1276,10 +1276,10 @@
     <t>{706.0: 1.0}</t>
   </si>
   <si>
-    <t>{707.0: 0.9947004269100544}</t>
-  </si>
-  <si>
-    <t>{580.0: 0.24580067720520912}</t>
+    <t>{707.0: 0.9945071711931645}</t>
+  </si>
+  <si>
+    <t>{580.0: 0.24663592461864028}</t>
   </si>
   <si>
     <t>{729.0: 1.0}</t>
@@ -1294,7 +1294,7 @@
     <t>{732.0: 1.0}</t>
   </si>
   <si>
-    <t>{733.0: 0.9184447605500237}</t>
+    <t>{733.0: 0.923876963930073}</t>
   </si>
   <si>
     <t>{734.0: 1.0}</t>
@@ -1348,7 +1348,7 @@
     <t>{751.0: 1.0}</t>
   </si>
   <si>
-    <t>{752.0: 1.0, 580.0: 0.01166838576585869}</t>
+    <t>{752.0: 1.0, 580.0: 0.011702334001422383}</t>
   </si>
   <si>
     <t>{753.0: 1.0}</t>
@@ -1363,7 +1363,7 @@
     <t>{756.0: 1.0}</t>
   </si>
   <si>
-    <t>{757.0: 0.36222635520957475}</t>
+    <t>{757.0: 0.2513707719978347}</t>
   </si>
   <si>
     <t>{758.0: 1.0}</t>
@@ -1372,10 +1372,10 @@
     <t>{759.0: 1.0}</t>
   </si>
   <si>
-    <t>{760.0: 1.0, 761.0: 0.056717805671780565}</t>
-  </si>
-  <si>
-    <t>{761.0: 0.9432821943282195}</t>
+    <t>{760.0: 1.0, 761.0: 0.05663223859811999}</t>
+  </si>
+  <si>
+    <t>{761.0: 0.9433677614018801}</t>
   </si>
   <si>
     <t>{762.0: 1.0}</t>
@@ -1393,7 +1393,7 @@
     <t>{766.0: 1.0}</t>
   </si>
   <si>
-    <t>{767.0: 0.9924251679902261}</t>
+    <t>{767.0: 0.9930648769574945}</t>
   </si>
   <si>
     <t>{768.0: 1.0}</t>
@@ -1411,7 +1411,7 @@
     <t>{772.0: 1.0}</t>
   </si>
   <si>
-    <t>{773.0: 1.0, 757.0: 0.48207276056823234}</t>
+    <t>{773.0: 1.0, 757.0: 0.556053224370056}</t>
   </si>
   <si>
     <t>{775.0: 1.0}</t>
@@ -1435,7 +1435,7 @@
     <t>{781.0: 1.0}</t>
   </si>
   <si>
-    <t>{782.0: 0.7807440846824408}</t>
+    <t>{782.0: 0.7757344160496775}</t>
   </si>
   <si>
     <t>{783.0: 1.0}</t>
@@ -1456,13 +1456,13 @@
     <t>{788.0: 1.0}</t>
   </si>
   <si>
-    <t>{789.0: 0.9969193352249696, 246.0: 0.04701454232920296}</t>
+    <t>{789.0: 0.9969130787977254, 246.0: 0.04696453766422555}</t>
   </si>
   <si>
     <t>{831.0: 1.0}</t>
   </si>
   <si>
-    <t>{832.0: 0.8805206880520688}</t>
+    <t>{832.0: 0.8786591123701605}</t>
   </si>
   <si>
     <t>{833.0: 1.0}</t>
@@ -1498,7 +1498,7 @@
     <t>{843.0: 1.0}</t>
   </si>
   <si>
-    <t>{227.0: 0.34034653465346537, 686.0: 0.02735229759299781}</t>
+    <t>{227.0: 0.3808864265927978, 686.0: 0.02725538293813028}</t>
   </si>
   <si>
     <t>{845.0: 1.0}</t>
@@ -1510,7 +1510,7 @@
     <t>{847.0: 1.0}</t>
   </si>
   <si>
-    <t>{848.0: 1.0, 707.0: 0.005299573089945532}</t>
+    <t>{848.0: 1.0, 707.0: 0.00549282880683552}</t>
   </si>
   <si>
     <t>{849.0: 1.0}</t>
@@ -1519,7 +1519,7 @@
     <t>{850.0: 1.0}</t>
   </si>
   <si>
-    <t>{851.0: 1.0, 7.0: 0.014550392860607237}</t>
+    <t>{851.0: 1.0, 7.0: 0.014697236919459141}</t>
   </si>
   <si>
     <t>{852.0: 1.0}</t>
@@ -1537,7 +1537,7 @@
     <t>{856.0: 1.0}</t>
   </si>
   <si>
-    <t>{857.0: 0.9696195343554799}</t>
+    <t>{857.0: 0.9695979542548657}</t>
   </si>
   <si>
     <t>{858.0: 1.0}</t>
@@ -1555,7 +1555,7 @@
     <t>{862.0: 1.0}</t>
   </si>
   <si>
-    <t>{863.0: 1.0, 10.0: 0.010316428261811877}</t>
+    <t>{863.0: 1.0, 10.0: 0.010404826440500132}</t>
   </si>
   <si>
     <t>{885.0: 1.0}</t>
@@ -1594,7 +1594,7 @@
     <t>{896.0: 1.0}</t>
   </si>
   <si>
-    <t>{897.0: 1.0, 215.0: 0.014558689717925387}</t>
+    <t>{897.0: 1.0, 215.0: 0.014476362813843022}</t>
   </si>
   <si>
     <t>{905.0: 1.0}</t>
@@ -1621,7 +1621,7 @@
     <t>{914.0: 1.0}</t>
   </si>
   <si>
-    <t>{915.0: 1.0, 171.0: 0.0035617012361198407, 420.0: 0.00773144782924734}</t>
+    <t>{915.0: 1.0, 171.0: 0.003550172287772789, 420.0: 0.007737583493155215}</t>
   </si>
   <si>
     <t>{916.0: 1.0}</t>
@@ -1639,10 +1639,10 @@
     <t>{920.0: 1.0}</t>
   </si>
   <si>
-    <t>{921.0: 1.0, 686.0: 0.10421225382932166}</t>
-  </si>
-  <si>
-    <t>{922.0: 0.9349464271666311}</t>
+    <t>{921.0: 1.0, 686.0: 0.10384300899427637}</t>
+  </si>
+  <si>
+    <t>{922.0: 0.9362087247694011}</t>
   </si>
   <si>
     <t>{923.0: 1.0}</t>
@@ -1660,13 +1660,13 @@
     <t>{927.0: 1.0}</t>
   </si>
   <si>
-    <t>{3.0: 0.28703703703703703, 418.0: 0.1169511249030256, 922.0: 0.06505357283336885}</t>
-  </si>
-  <si>
-    <t>{929.0: 1.0, 930.0: 0.10097227696754697}</t>
-  </si>
-  <si>
-    <t>{930.0: 0.899027723032453}</t>
+    <t>{3.0: 0.2930491195551437, 418.0: 0.11724674314602372, 922.0: 0.06379127523059891}</t>
+  </si>
+  <si>
+    <t>{929.0: 1.0, 930.0: 0.10524513831826897}</t>
+  </si>
+  <si>
+    <t>{930.0: 0.894754861681731}</t>
   </si>
   <si>
     <t>{931.0: 1.0}</t>
@@ -1678,7 +1678,7 @@
     <t>{933.0: 1.0}</t>
   </si>
   <si>
-    <t>{934.0: 1.0, 5.0: 0.01186744290192566}</t>
+    <t>{934.0: 1.0, 5.0: 0.01182244033013607}</t>
   </si>
   <si>
     <t>{935.0: 1.0}</t>
@@ -1687,10 +1687,10 @@
     <t>{936.0: 1.0}</t>
   </si>
   <si>
-    <t>{937.0: 1.0, 171.0: 0.001047559187094071}</t>
-  </si>
-  <si>
-    <t>{938.0: 0.7590095611669527}</t>
+    <t>{937.0: 1.0, 171.0: 0.0010441683199331733}</t>
+  </si>
+  <si>
+    <t>{938.0: 0.750950088674943}</t>
   </si>
   <si>
     <t>{939.0: 1.0}</t>
@@ -1729,7 +1729,7 @@
     <t>{977.0: 1.0}</t>
   </si>
   <si>
-    <t>{782.0: 0.21925591531755914}</t>
+    <t>{782.0: 0.22426558395032242}</t>
   </si>
   <si>
     <t>{979.0: 1.0}</t>
@@ -1747,7 +1747,7 @@
     <t>{990.0: 1.0}</t>
   </si>
   <si>
-    <t>{497.0: 0.23175332130556012, 938.0: 0.24099043883304733}</t>
+    <t>{497.0: 0.23277140189995058, 938.0: 0.249049911325057}</t>
   </si>
   <si>
     <t>{992.0: 1.0}</t>
@@ -1768,10 +1768,10 @@
     <t>{10.0: 1.0}</t>
   </si>
   <si>
-    <t>{46.0: 0.9033610588668488, 246.0: 0.05332966509213173, 681.0: 0.010216214853531873, 741.0: 0.007429974438932271, 789.0: 0.011373028980236798, 90.0: 0.014290057768318638}</t>
-  </si>
-  <si>
-    <t>{48.0: 0.9182990922121357, 443.0: 0.07303779428966833, 291.0: 0.008663113498195959}</t>
+    <t>{46.0: 0.9033610588668488, 246.0: 0.05332888846354048, 681.0: 0.010216214853531873, 741.0: 0.007429974438932271, 789.0: 0.011373805608828039, 90.0: 0.014290057768318638}</t>
+  </si>
+  <si>
+    <t>{48.0: 0.9182990922121357, 443.0: 0.07303779428966835, 291.0: 0.008663113498195959}</t>
   </si>
   <si>
     <t>{71.0: 1.0}</t>
@@ -1792,7 +1792,7 @@
     <t>{104.0: 1.0}</t>
   </si>
   <si>
-    <t>{107.0: 0.993484956171523, 543.0: 0.006515043828476664}</t>
+    <t>{107.0: 0.9934849561715233, 543.0: 0.006515043828476664}</t>
   </si>
   <si>
     <t>{147.0: 0.929038025166747, 733.0: 0.07096197483325312}</t>
@@ -1864,7 +1864,7 @@
     <t>{420.0: 1.0}</t>
   </si>
   <si>
-    <t>{443.0: 0.8939655172413792, 291.0: 0.1060344827586207}</t>
+    <t>{443.0: 0.8939655172413793, 291.0: 0.1060344827586207}</t>
   </si>
   <si>
     <t>{481.0: 1.0}</t>
@@ -1882,7 +1882,7 @@
     <t>{507.0: 1.0}</t>
   </si>
   <si>
-    <t>{535.0: 0.9934522679825392, 71.0: 0.0065477320174606194}</t>
+    <t>{535.0: 0.9934522679825394, 71.0: 0.0065477320174606194}</t>
   </si>
   <si>
     <t>{543.0: 1.0}</t>
@@ -1891,7 +1891,7 @@
     <t>{562.0: 0.9667784212130448, 211.0: 0.0332215787869552}</t>
   </si>
   <si>
-    <t>{576.0: 0.9802847754654983, 401.0: 0.019715224534501644}</t>
+    <t>{576.0: 0.9802847754654982, 401.0: 0.019715224534501644}</t>
   </si>
   <si>
     <t>{580.0: 1.0}</t>
@@ -1909,7 +1909,7 @@
     <t>{613.0: 1.0}</t>
   </si>
   <si>
-    <t>{305.0: 0.8292882465230433, 615.0: 0.01963457867466594, 698.0: 0.0109080992637033, 832.0: 0.14016907553858743}</t>
+    <t>{305.0: 0.8292882465230433, 615.0: 0.01963457867466594, 698.0: 0.0109080992637033, 832.0: 0.1401690755385874}</t>
   </si>
   <si>
     <t>{615.0: 1.0}</t>
@@ -1924,7 +1924,7 @@
     <t>{686.0: 1.0}</t>
   </si>
   <si>
-    <t>{695.0: 0.9182582123758595, 857.0: 0.08174178762414057}</t>
+    <t>{695.0: 0.9183829138062548, 857.0: 0.08161708619374523}</t>
   </si>
   <si>
     <t>{698.0: 1.0}</t>
@@ -1942,7 +1942,7 @@
     <t>{741.0: 1.0}</t>
   </si>
   <si>
-    <t>{752.0: 0.9259410801963993, 580.0: 0.07405891980360066}</t>
+    <t>{752.0: 0.9263928426189508, 580.0: 0.07360715738104921}</t>
   </si>
   <si>
     <t>{757.0: 1.0}</t>
@@ -1957,13 +1957,13 @@
     <t>{767.0: 1.0}</t>
   </si>
   <si>
-    <t>{773.0: 0.8230245634803197, 757.0: 0.17697543651968037}</t>
+    <t>{773.0: 0.8230245634803195, 757.0: 0.17697543651968037}</t>
   </si>
   <si>
     <t>{782.0: 1.0}</t>
   </si>
   <si>
-    <t>{789.0: 0.9667550986569391, 246.0: 0.03324490134306085}</t>
+    <t>{789.0: 0.9668211153400628, 246.0: 0.03317888465993712}</t>
   </si>
   <si>
     <t>{832.0: 1.0}</t>
@@ -1972,10 +1972,10 @@
     <t>{227.0: 0.9322033898305084, 686.0: 0.06779661016949153}</t>
   </si>
   <si>
-    <t>{848.0: 0.9943369513921662, 707.0: 0.005663048607833884}</t>
-  </si>
-  <si>
-    <t>{851.0: 0.9234303215926493, 7.0: 0.07656967840735068}</t>
+    <t>{848.0: 0.994336951392166, 707.0: 0.005663048607833884}</t>
+  </si>
+  <si>
+    <t>{851.0: 0.9234303215926492, 7.0: 0.07656967840735068}</t>
   </si>
   <si>
     <t>{857.0: 1.0}</t>
@@ -1984,7 +1984,7 @@
     <t>{863.0: 0.9722739981360671, 10.0: 0.027726001863932898}</t>
   </si>
   <si>
-    <t>{897.0: 0.9951204635559623, 215.0: 0.004879536444037816}</t>
+    <t>{897.0: 0.9951204635559621, 215.0: 0.004879536444037816}</t>
   </si>
   <si>
     <t>{915.0: 0.9494814319170292, 171.0: 0.011375041820006692, 420.0: 0.039143526262964204}</t>
@@ -4063,7 +4063,7 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B154" t="s">
         <v>155</v>
@@ -4074,7 +4074,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
@@ -4085,29 +4085,29 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
       </c>
       <c r="C156" t="s">
-        <v>605</v>
+        <v>157</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
       </c>
       <c r="C157" t="s">
-        <v>158</v>
+        <v>605</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
@@ -4118,7 +4118,7 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
@@ -4129,7 +4129,7 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
@@ -4140,7 +4140,7 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
@@ -4162,7 +4162,7 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
@@ -4173,7 +4173,7 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
@@ -4184,7 +4184,7 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
@@ -4195,7 +4195,7 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
@@ -4206,7 +4206,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
@@ -4217,7 +4217,7 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
@@ -4228,7 +4228,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
@@ -4239,7 +4239,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
@@ -4250,7 +4250,7 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
@@ -4261,7 +4261,7 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
@@ -4272,7 +4272,7 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
@@ -4283,7 +4283,7 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
@@ -4294,7 +4294,7 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
@@ -4305,7 +4305,7 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
@@ -4316,7 +4316,7 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
@@ -4327,7 +4327,7 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
@@ -4338,7 +4338,7 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
@@ -4349,7 +4349,7 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
@@ -4360,7 +4360,7 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
@@ -4371,7 +4371,7 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
@@ -4382,7 +4382,7 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
@@ -4393,7 +4393,7 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
@@ -4404,7 +4404,7 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
@@ -4415,29 +4415,29 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
       </c>
       <c r="C186" t="s">
-        <v>606</v>
+        <v>187</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
       </c>
       <c r="C187" t="s">
-        <v>188</v>
+        <v>606</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
@@ -4448,7 +4448,7 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
@@ -4459,29 +4459,29 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
       </c>
       <c r="C190" t="s">
-        <v>597</v>
+        <v>191</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
       </c>
       <c r="C191" t="s">
-        <v>192</v>
+        <v>597</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
@@ -4492,7 +4492,7 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
@@ -4503,7 +4503,7 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
@@ -4514,7 +4514,7 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
@@ -4525,7 +4525,7 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
@@ -4536,7 +4536,7 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
@@ -4547,7 +4547,7 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
@@ -4558,29 +4558,29 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
       </c>
       <c r="C199" t="s">
-        <v>607</v>
+        <v>200</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
       </c>
       <c r="C200" t="s">
-        <v>201</v>
+        <v>607</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
@@ -4591,7 +4591,7 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
@@ -4602,7 +4602,7 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
@@ -4613,7 +4613,7 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
@@ -4624,7 +4624,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
@@ -4635,7 +4635,7 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
@@ -4646,7 +4646,7 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B207" t="s">
         <v>208</v>
@@ -4657,7 +4657,7 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B208" t="s">
         <v>209</v>
@@ -4668,7 +4668,7 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B209" t="s">
         <v>210</v>
@@ -4679,7 +4679,7 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B210" t="s">
         <v>211</v>
@@ -4690,51 +4690,51 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B211" t="s">
         <v>212</v>
       </c>
       <c r="C211" t="s">
-        <v>608</v>
+        <v>212</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B212" t="s">
         <v>213</v>
       </c>
       <c r="C212" t="s">
-        <v>213</v>
+        <v>608</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B213" t="s">
         <v>214</v>
       </c>
       <c r="C213" t="s">
-        <v>609</v>
+        <v>214</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B214" t="s">
         <v>215</v>
       </c>
       <c r="C214" t="s">
-        <v>215</v>
+        <v>609</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B215" t="s">
         <v>216</v>
@@ -4745,7 +4745,7 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B216" t="s">
         <v>217</v>
@@ -4756,29 +4756,29 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B217" t="s">
         <v>218</v>
       </c>
       <c r="C217" t="s">
-        <v>610</v>
+        <v>218</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B218" t="s">
         <v>219</v>
       </c>
       <c r="C218" t="s">
-        <v>219</v>
+        <v>610</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B219" t="s">
         <v>220</v>
@@ -4789,7 +4789,7 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B220" t="s">
         <v>221</v>
@@ -4800,7 +4800,7 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B221" t="s">
         <v>222</v>
@@ -4811,7 +4811,7 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B222" t="s">
         <v>223</v>
@@ -4822,7 +4822,7 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B223" t="s">
         <v>224</v>
@@ -4833,7 +4833,7 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B224" t="s">
         <v>225</v>
@@ -4844,7 +4844,7 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B225" t="s">
         <v>226</v>
@@ -4855,7 +4855,7 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B226" t="s">
         <v>227</v>
@@ -4866,7 +4866,7 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B227" t="s">
         <v>228</v>
